--- a/5조_화면목록.xlsx
+++ b/5조_화면목록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeomSeok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB63904-92B5-407F-9250-CE17B65AAA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516DBAB1-4BAF-4D75-91FE-EB32928B73AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3345" yWindow="2025" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>화면 목록</t>
     <phoneticPr fontId="4"/>
@@ -430,6 +430,30 @@
   </si>
   <si>
     <t>COM_010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명 검색 화면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자명 검색 화면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사명 검색 화면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USR_016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USR_017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USR_018</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1115,6 +1139,42 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1124,22 +1184,196 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,15 +1385,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,207 +1401,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1723,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU102"/>
+  <dimension ref="A1:AU105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW25" sqref="AW25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -1738,143 +1762,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="105" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="107" t="s">
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="109"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="77"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="110" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="116"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="117"/>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="118"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="86"/>
     </row>
     <row r="3" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="120"/>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120"/>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="121"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="89"/>
     </row>
     <row r="4" spans="1:47" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="2"/>
@@ -1924,98 +1948,98 @@
       <c r="AU4" s="6"/>
     </row>
     <row r="5" spans="1:47" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93" t="s">
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="80" t="s">
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="81"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="82"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="96"/>
     </row>
     <row r="6" spans="1:47" ht="18" customHeight="1">
-      <c r="A6" s="75">
+      <c r="A6" s="44">
         <v>1</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="76" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="89" t="s">
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="91"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="105"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -2028,43 +2052,43 @@
       <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:47" ht="18" customHeight="1">
-      <c r="A7" s="75">
+      <c r="A7" s="44">
         <v>2</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="76" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77" t="s">
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="79"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="93"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -2077,43 +2101,43 @@
       <c r="AO7" s="17"/>
     </row>
     <row r="8" spans="1:47" ht="18" customHeight="1">
-      <c r="A8" s="75">
+      <c r="A8" s="44">
         <v>3</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="76" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77" t="s">
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="79"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="93"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -2126,43 +2150,43 @@
       <c r="AO8" s="17"/>
     </row>
     <row r="9" spans="1:47" ht="18" customHeight="1">
-      <c r="A9" s="75">
+      <c r="A9" s="44">
         <v>4</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="76" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77" t="s">
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="79"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="93"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -2175,43 +2199,43 @@
       <c r="AO9" s="17"/>
     </row>
     <row r="10" spans="1:47" ht="18" customHeight="1">
-      <c r="A10" s="75">
+      <c r="A10" s="44">
         <v>5</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="76" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77" t="s">
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="79"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="93"/>
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
@@ -2224,45 +2248,45 @@
       <c r="AO10" s="19"/>
     </row>
     <row r="11" spans="1:47" ht="18" customHeight="1">
-      <c r="A11" s="75">
+      <c r="A11" s="44">
         <v>6</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="43" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="40" t="s">
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="42"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="54"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
@@ -2275,43 +2299,43 @@
       <c r="AO11" s="11"/>
     </row>
     <row r="12" spans="1:47" ht="18" customHeight="1">
-      <c r="A12" s="75">
+      <c r="A12" s="44">
         <v>7</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="43" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="40" t="s">
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="42"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="54"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
@@ -2324,43 +2348,43 @@
       <c r="AO12" s="11"/>
     </row>
     <row r="13" spans="1:47" ht="18" customHeight="1">
-      <c r="A13" s="75">
+      <c r="A13" s="44">
         <v>8</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="43" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="40" t="s">
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="42"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="54"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
@@ -2373,43 +2397,43 @@
       <c r="AO13" s="11"/>
     </row>
     <row r="14" spans="1:47" ht="18" customHeight="1">
-      <c r="A14" s="75">
+      <c r="A14" s="44">
         <v>9</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="43" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="40" t="s">
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="42"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="54"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
@@ -2422,43 +2446,43 @@
       <c r="AO14" s="11"/>
     </row>
     <row r="15" spans="1:47" ht="18" customHeight="1">
-      <c r="A15" s="75">
+      <c r="A15" s="44">
         <v>10</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="43" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="40" t="s">
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="42"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="54"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
@@ -2471,43 +2495,43 @@
       <c r="AO15" s="11"/>
     </row>
     <row r="16" spans="1:47" ht="18" customHeight="1">
-      <c r="A16" s="75">
+      <c r="A16" s="44">
         <v>16</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="43" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="40" t="s">
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="42"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="54"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
@@ -2520,43 +2544,43 @@
       <c r="AO16" s="11"/>
     </row>
     <row r="17" spans="1:41" ht="18" customHeight="1">
-      <c r="A17" s="75">
+      <c r="A17" s="44">
         <v>19</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="43" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="40" t="s">
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="42"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="54"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
@@ -2569,43 +2593,43 @@
       <c r="AO17" s="11"/>
     </row>
     <row r="18" spans="1:41" ht="18" customHeight="1">
-      <c r="A18" s="75">
+      <c r="A18" s="44">
         <v>21</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="43" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="40" t="s">
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="42"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="54"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
@@ -2618,28 +2642,28 @@
       <c r="AO18" s="11"/>
     </row>
     <row r="19" spans="1:41" ht="18" customHeight="1">
-      <c r="A19" s="75">
+      <c r="A19" s="44">
         <v>23</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="43" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
       <c r="S19" s="28" t="s">
         <v>39</v>
       </c>
@@ -2667,28 +2691,28 @@
       <c r="AO19" s="11"/>
     </row>
     <row r="20" spans="1:41" ht="18" customHeight="1">
-      <c r="A20" s="75">
+      <c r="A20" s="44">
         <v>25</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="43" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
       <c r="S20" s="28" t="s">
         <v>61</v>
       </c>
@@ -2716,28 +2740,28 @@
       <c r="AO20" s="11"/>
     </row>
     <row r="21" spans="1:41" ht="18" customHeight="1">
-      <c r="A21" s="75">
+      <c r="A21" s="44">
         <v>28</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="43" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
       <c r="S21" s="28" t="s">
         <v>62</v>
       </c>
@@ -2765,28 +2789,28 @@
       <c r="AO21" s="11"/>
     </row>
     <row r="22" spans="1:41" ht="18" customHeight="1">
-      <c r="A22" s="75">
+      <c r="A22" s="44">
         <v>28</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="43" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
       <c r="S22" s="28" t="s">
         <v>95</v>
       </c>
@@ -2814,28 +2838,28 @@
       <c r="AO22" s="11"/>
     </row>
     <row r="23" spans="1:41" ht="18" customHeight="1">
-      <c r="A23" s="122">
+      <c r="A23" s="41">
         <v>29</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="43" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
       <c r="S23" s="28" t="s">
         <v>63</v>
       </c>
@@ -2863,28 +2887,28 @@
       <c r="AO23" s="11"/>
     </row>
     <row r="24" spans="1:41" ht="18" customHeight="1">
-      <c r="A24" s="75">
+      <c r="A24" s="44">
         <v>30</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="43" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
       <c r="S24" s="28" t="s">
         <v>64</v>
       </c>
@@ -2912,28 +2936,28 @@
       <c r="AO24" s="11"/>
     </row>
     <row r="25" spans="1:41" ht="18" customHeight="1">
-      <c r="A25" s="75">
+      <c r="A25" s="44">
         <v>34</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="43" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
       <c r="S25" s="28" t="s">
         <v>77</v>
       </c>
@@ -2961,192 +2985,192 @@
       <c r="AO25" s="11"/>
     </row>
     <row r="26" spans="1:41" ht="18" customHeight="1">
-      <c r="A26" s="75">
+      <c r="A26" s="44">
+        <v>34</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="11"/>
+    </row>
+    <row r="27" spans="1:41" ht="18" customHeight="1">
+      <c r="A27" s="44">
+        <v>34</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="11"/>
+    </row>
+    <row r="28" spans="1:41" ht="18" customHeight="1">
+      <c r="A28" s="44">
+        <v>34</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="11"/>
+    </row>
+    <row r="29" spans="1:41" ht="18" customHeight="1">
+      <c r="A29" s="44">
         <v>35</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="61" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="45" t="s">
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="67" t="s">
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="23"/>
-    </row>
-    <row r="27" spans="1:41" ht="18" customHeight="1">
-      <c r="A27" s="75">
-        <v>37</v>
-      </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="23"/>
-    </row>
-    <row r="28" spans="1:41" ht="18" customHeight="1">
-      <c r="A28" s="75">
-        <v>38</v>
-      </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="23"/>
-    </row>
-    <row r="29" spans="1:41" ht="18" customHeight="1">
-      <c r="A29" s="75">
-        <v>38</v>
-      </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="48"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="118"/>
       <c r="AF29" s="22"/>
       <c r="AG29" s="22"/>
       <c r="AH29" s="22"/>
@@ -3159,43 +3183,43 @@
       <c r="AO29" s="23"/>
     </row>
     <row r="30" spans="1:41" ht="18" customHeight="1">
-      <c r="A30" s="75">
-        <v>39</v>
-      </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="48"/>
+      <c r="A30" s="44">
+        <v>37</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="47"/>
       <c r="AF30" s="22"/>
       <c r="AG30" s="22"/>
       <c r="AH30" s="22"/>
@@ -3208,43 +3232,43 @@
       <c r="AO30" s="23"/>
     </row>
     <row r="31" spans="1:41" ht="18" customHeight="1">
-      <c r="A31" s="75">
-        <v>40</v>
-      </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="48"/>
+      <c r="A31" s="44">
+        <v>38</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="47"/>
       <c r="AF31" s="22"/>
       <c r="AG31" s="22"/>
       <c r="AH31" s="22"/>
@@ -3257,43 +3281,43 @@
       <c r="AO31" s="23"/>
     </row>
     <row r="32" spans="1:41" ht="18" customHeight="1">
-      <c r="A32" s="75">
-        <v>41</v>
-      </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="48"/>
+      <c r="A32" s="44">
+        <v>38</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="47"/>
       <c r="AF32" s="22"/>
       <c r="AG32" s="22"/>
       <c r="AH32" s="22"/>
@@ -3306,43 +3330,43 @@
       <c r="AO32" s="23"/>
     </row>
     <row r="33" spans="1:41" ht="18" customHeight="1">
-      <c r="A33" s="75">
-        <v>42</v>
-      </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="33"/>
+      <c r="A33" s="44">
+        <v>39</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="47"/>
       <c r="AF33" s="22"/>
       <c r="AG33" s="22"/>
       <c r="AH33" s="22"/>
@@ -3355,43 +3379,43 @@
       <c r="AO33" s="23"/>
     </row>
     <row r="34" spans="1:41" ht="18" customHeight="1">
-      <c r="A34" s="75">
-        <v>43</v>
-      </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="48"/>
+      <c r="A34" s="44">
+        <v>40</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="47"/>
       <c r="AF34" s="22"/>
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
@@ -3404,43 +3428,43 @@
       <c r="AO34" s="23"/>
     </row>
     <row r="35" spans="1:41" ht="18" customHeight="1">
-      <c r="A35" s="122">
-        <v>44</v>
-      </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="48"/>
+      <c r="A35" s="44">
+        <v>41</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="47"/>
       <c r="AF35" s="22"/>
       <c r="AG35" s="22"/>
       <c r="AH35" s="22"/>
@@ -3453,43 +3477,43 @@
       <c r="AO35" s="23"/>
     </row>
     <row r="36" spans="1:41" ht="18" customHeight="1">
-      <c r="A36" s="75">
-        <v>46</v>
-      </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="47"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="48"/>
+      <c r="A36" s="44">
+        <v>42</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="33"/>
       <c r="AF36" s="22"/>
       <c r="AG36" s="22"/>
       <c r="AH36" s="22"/>
@@ -3502,43 +3526,43 @@
       <c r="AO36" s="23"/>
     </row>
     <row r="37" spans="1:41" ht="18" customHeight="1">
-      <c r="A37" s="75">
-        <v>48</v>
-      </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="48"/>
+      <c r="A37" s="44">
+        <v>43</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="47"/>
       <c r="AF37" s="22"/>
       <c r="AG37" s="22"/>
       <c r="AH37" s="22"/>
@@ -3551,43 +3575,43 @@
       <c r="AO37" s="23"/>
     </row>
     <row r="38" spans="1:41" ht="18" customHeight="1">
-      <c r="A38" s="75">
-        <v>49</v>
-      </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="48"/>
+      <c r="A38" s="41">
+        <v>44</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="47"/>
       <c r="AF38" s="22"/>
       <c r="AG38" s="22"/>
       <c r="AH38" s="22"/>
@@ -3600,43 +3624,43 @@
       <c r="AO38" s="23"/>
     </row>
     <row r="39" spans="1:41" ht="18" customHeight="1">
-      <c r="A39" s="75">
-        <v>51</v>
-      </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="48"/>
+      <c r="A39" s="44">
+        <v>46</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="47"/>
       <c r="AF39" s="22"/>
       <c r="AG39" s="22"/>
       <c r="AH39" s="22"/>
@@ -3649,43 +3673,43 @@
       <c r="AO39" s="23"/>
     </row>
     <row r="40" spans="1:41" ht="18" customHeight="1">
-      <c r="A40" s="75">
-        <v>53</v>
-      </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="48"/>
+      <c r="A40" s="44">
+        <v>48</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="47"/>
       <c r="AF40" s="22"/>
       <c r="AG40" s="22"/>
       <c r="AH40" s="22"/>
@@ -3698,43 +3722,43 @@
       <c r="AO40" s="23"/>
     </row>
     <row r="41" spans="1:41" ht="18" customHeight="1">
-      <c r="A41" s="75">
-        <v>54</v>
-      </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="48"/>
+      <c r="A41" s="44">
+        <v>49</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="47"/>
       <c r="AF41" s="22"/>
       <c r="AG41" s="22"/>
       <c r="AH41" s="22"/>
@@ -3747,43 +3771,43 @@
       <c r="AO41" s="23"/>
     </row>
     <row r="42" spans="1:41" ht="18" customHeight="1">
-      <c r="A42" s="75">
-        <v>55</v>
-      </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="48"/>
+      <c r="A42" s="44">
+        <v>51</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="47"/>
       <c r="AF42" s="22"/>
       <c r="AG42" s="22"/>
       <c r="AH42" s="22"/>
@@ -3796,337 +3820,337 @@
       <c r="AO42" s="23"/>
     </row>
     <row r="43" spans="1:41" ht="18" customHeight="1">
-      <c r="A43" s="75">
+      <c r="A43" s="44">
+        <v>53</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="22"/>
+      <c r="AI43" s="22"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="22"/>
+      <c r="AO43" s="23"/>
+    </row>
+    <row r="44" spans="1:41" ht="18" customHeight="1">
+      <c r="A44" s="44">
+        <v>54</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="22"/>
+      <c r="AG44" s="22"/>
+      <c r="AH44" s="22"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="22"/>
+      <c r="AK44" s="22"/>
+      <c r="AL44" s="22"/>
+      <c r="AM44" s="22"/>
+      <c r="AN44" s="22"/>
+      <c r="AO44" s="23"/>
+    </row>
+    <row r="45" spans="1:41" ht="18" customHeight="1">
+      <c r="A45" s="44">
+        <v>55</v>
+      </c>
+      <c r="B45" s="44"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+      <c r="AN45" s="22"/>
+      <c r="AO45" s="23"/>
+    </row>
+    <row r="46" spans="1:41" ht="18" customHeight="1">
+      <c r="A46" s="44">
         <v>57</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="44" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="52" t="s">
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
-      <c r="AJ43" s="20"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
-      <c r="AM43" s="20"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="21"/>
-    </row>
-    <row r="44" spans="1:41" ht="18" customHeight="1">
-      <c r="A44" s="75">
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="21"/>
+    </row>
+    <row r="47" spans="1:41" ht="18" customHeight="1">
+      <c r="A47" s="44">
         <v>58</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="44" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="52" t="s">
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="24"/>
-      <c r="AG44" s="24"/>
-      <c r="AH44" s="24"/>
-      <c r="AI44" s="24"/>
-      <c r="AJ44" s="24"/>
-      <c r="AK44" s="24"/>
-      <c r="AL44" s="24"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="24"/>
-      <c r="AO44" s="25"/>
-    </row>
-    <row r="45" spans="1:41" ht="18" customHeight="1">
-      <c r="A45" s="122">
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
+      <c r="AD47" s="49"/>
+      <c r="AE47" s="50"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="25"/>
+    </row>
+    <row r="48" spans="1:41" ht="18" customHeight="1">
+      <c r="A48" s="41">
         <v>60</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="44" t="s">
+      <c r="B48" s="42"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="52" t="s">
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="24"/>
-      <c r="AH45" s="24"/>
-      <c r="AI45" s="24"/>
-      <c r="AJ45" s="24"/>
-      <c r="AK45" s="24"/>
-      <c r="AL45" s="24"/>
-      <c r="AM45" s="24"/>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="25"/>
-    </row>
-    <row r="46" spans="1:41" ht="18" customHeight="1">
-      <c r="A46" s="122">
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="49"/>
+      <c r="Z48" s="49"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="49"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="24"/>
+      <c r="AJ48" s="24"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="24"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="24"/>
+      <c r="AO48" s="25"/>
+    </row>
+    <row r="49" spans="1:41" ht="18" customHeight="1">
+      <c r="A49" s="41">
         <v>60</v>
       </c>
-      <c r="B46" s="123"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="44" t="s">
+      <c r="B49" s="42"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="52" t="s">
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="24"/>
-      <c r="AL46" s="24"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="25"/>
-    </row>
-    <row r="47" spans="1:41" ht="18" customHeight="1">
-      <c r="A47" s="122">
-        <v>61</v>
-      </c>
-      <c r="B47" s="123"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="35"/>
-      <c r="AE47" s="36"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20"/>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="21"/>
-    </row>
-    <row r="48" spans="1:41" ht="18" customHeight="1">
-      <c r="A48" s="122">
-        <v>62</v>
-      </c>
-      <c r="B48" s="123"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="36"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="20"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="20"/>
-      <c r="AO48" s="21"/>
-    </row>
-    <row r="49" spans="1:41" ht="18" customHeight="1">
-      <c r="A49" s="122">
-        <v>63</v>
-      </c>
-      <c r="B49" s="123"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="36"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="49"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="49"/>
+      <c r="AC49" s="49"/>
+      <c r="AD49" s="49"/>
+      <c r="AE49" s="50"/>
       <c r="AF49" s="24"/>
       <c r="AG49" s="24"/>
       <c r="AH49" s="24"/>
@@ -4139,30 +4163,30 @@
       <c r="AO49" s="25"/>
     </row>
     <row r="50" spans="1:41" ht="18" customHeight="1">
-      <c r="A50" s="122">
-        <v>64</v>
-      </c>
-      <c r="B50" s="123"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
+      <c r="A50" s="41">
+        <v>61</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
       <c r="S50" s="34" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
@@ -4175,43 +4199,43 @@
       <c r="AB50" s="35"/>
       <c r="AC50" s="35"/>
       <c r="AD50" s="35"/>
-      <c r="AE50" s="37"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="24"/>
-      <c r="AJ50" s="24"/>
-      <c r="AK50" s="24"/>
-      <c r="AL50" s="24"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="25"/>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="21"/>
     </row>
     <row r="51" spans="1:41" ht="18" customHeight="1">
-      <c r="A51" s="122">
-        <v>65</v>
-      </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
+      <c r="A51" s="41">
+        <v>62</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
       <c r="S51" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T51" s="35"/>
       <c r="U51" s="35"/>
@@ -4224,56 +4248,56 @@
       <c r="AB51" s="35"/>
       <c r="AC51" s="35"/>
       <c r="AD51" s="35"/>
-      <c r="AE51" s="37"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="24"/>
-      <c r="AL51" s="24"/>
-      <c r="AM51" s="24"/>
-      <c r="AN51" s="24"/>
-      <c r="AO51" s="25"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="21"/>
     </row>
     <row r="52" spans="1:41" ht="18" customHeight="1">
-      <c r="A52" s="122">
-        <v>66</v>
-      </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="37"/>
+      <c r="A52" s="41">
+        <v>63</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="36"/>
       <c r="AF52" s="24"/>
       <c r="AG52" s="24"/>
       <c r="AH52" s="24"/>
@@ -4286,42 +4310,42 @@
       <c r="AO52" s="25"/>
     </row>
     <row r="53" spans="1:41" ht="18" customHeight="1">
-      <c r="A53" s="122">
-        <v>66</v>
-      </c>
-      <c r="B53" s="123"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
+      <c r="A53" s="41">
+        <v>64</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
       <c r="AE53" s="37"/>
       <c r="AF53" s="24"/>
       <c r="AG53" s="24"/>
@@ -4335,71 +4359,200 @@
       <c r="AO53" s="25"/>
     </row>
     <row r="54" spans="1:41" ht="18" customHeight="1">
-      <c r="A54" s="122">
+      <c r="A54" s="41">
+        <v>65</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="24"/>
+      <c r="AJ54" s="24"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="25"/>
+    </row>
+    <row r="55" spans="1:41" ht="18" customHeight="1">
+      <c r="A55" s="41">
+        <v>66</v>
+      </c>
+      <c r="B55" s="42"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="24"/>
+      <c r="AI55" s="24"/>
+      <c r="AJ55" s="24"/>
+      <c r="AK55" s="24"/>
+      <c r="AL55" s="24"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="24"/>
+      <c r="AO55" s="25"/>
+    </row>
+    <row r="56" spans="1:41" ht="18" customHeight="1">
+      <c r="A56" s="41">
+        <v>66</v>
+      </c>
+      <c r="B56" s="42"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="24"/>
+      <c r="AH56" s="24"/>
+      <c r="AI56" s="24"/>
+      <c r="AJ56" s="24"/>
+      <c r="AK56" s="24"/>
+      <c r="AL56" s="24"/>
+      <c r="AM56" s="24"/>
+      <c r="AN56" s="24"/>
+      <c r="AO56" s="25"/>
+    </row>
+    <row r="57" spans="1:41" ht="18" customHeight="1">
+      <c r="A57" s="41">
         <v>67</v>
       </c>
-      <c r="B54" s="123"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="44" t="s">
+      <c r="B57" s="42"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
+      <c r="I57" s="126"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="L54" s="44"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="49" t="s">
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="50"/>
-      <c r="AC54" s="50"/>
-      <c r="AD54" s="50"/>
-      <c r="AE54" s="51"/>
-      <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
-      <c r="AJ54" s="26"/>
-      <c r="AK54" s="26"/>
-      <c r="AL54" s="26"/>
-      <c r="AM54" s="26"/>
-      <c r="AN54" s="26"/>
-      <c r="AO54" s="27"/>
-    </row>
-    <row r="55" spans="1:41" ht="18" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-    </row>
-    <row r="56" spans="1:41" ht="18" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:41" ht="18" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
+      <c r="T57" s="120"/>
+      <c r="U57" s="120"/>
+      <c r="V57" s="120"/>
+      <c r="W57" s="120"/>
+      <c r="X57" s="120"/>
+      <c r="Y57" s="120"/>
+      <c r="Z57" s="120"/>
+      <c r="AA57" s="120"/>
+      <c r="AB57" s="120"/>
+      <c r="AC57" s="120"/>
+      <c r="AD57" s="120"/>
+      <c r="AE57" s="121"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="26"/>
+      <c r="AH57" s="26"/>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="26"/>
+      <c r="AK57" s="26"/>
+      <c r="AL57" s="26"/>
+      <c r="AM57" s="26"/>
+      <c r="AN57" s="26"/>
+      <c r="AO57" s="27"/>
     </row>
     <row r="58" spans="1:41" ht="18" customHeight="1">
       <c r="A58" s="12"/>
@@ -4557,149 +4710,23 @@
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
+    <row r="84" spans="1:47" ht="18" customHeight="1">
       <c r="A84" s="12"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="9"/>
-      <c r="AA84" s="9"/>
-      <c r="AB84" s="9"/>
-      <c r="AC84" s="9"/>
-      <c r="AD84" s="9"/>
-      <c r="AE84" s="9"/>
-      <c r="AF84" s="9"/>
-      <c r="AG84" s="9"/>
-      <c r="AH84" s="9"/>
-      <c r="AI84" s="9"/>
-      <c r="AJ84" s="9"/>
-      <c r="AK84" s="9"/>
-      <c r="AL84" s="9"/>
-      <c r="AM84" s="9"/>
-      <c r="AN84" s="9"/>
-      <c r="AO84" s="9"/>
-      <c r="AP84" s="9"/>
-      <c r="AQ84" s="9"/>
-      <c r="AR84" s="9"/>
-      <c r="AS84" s="9"/>
-      <c r="AT84" s="9"/>
-      <c r="AU84" s="9"/>
-    </row>
-    <row r="85" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:47" ht="18" customHeight="1">
       <c r="A85" s="12"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
-      <c r="Z85" s="9"/>
-      <c r="AA85" s="9"/>
-      <c r="AB85" s="9"/>
-      <c r="AC85" s="9"/>
-      <c r="AD85" s="9"/>
-      <c r="AE85" s="9"/>
-      <c r="AF85" s="9"/>
-      <c r="AG85" s="9"/>
-      <c r="AH85" s="9"/>
-      <c r="AI85" s="9"/>
-      <c r="AJ85" s="9"/>
-      <c r="AK85" s="9"/>
-      <c r="AL85" s="9"/>
-      <c r="AM85" s="9"/>
-      <c r="AN85" s="9"/>
-      <c r="AO85" s="9"/>
-      <c r="AP85" s="9"/>
-      <c r="AQ85" s="9"/>
-      <c r="AR85" s="9"/>
-      <c r="AS85" s="9"/>
-      <c r="AT85" s="9"/>
-      <c r="AU85" s="9"/>
-    </row>
-    <row r="86" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:47" ht="18" customHeight="1">
       <c r="A86" s="12"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
-      <c r="AA86" s="9"/>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
-      <c r="AD86" s="9"/>
-      <c r="AE86" s="9"/>
-      <c r="AF86" s="9"/>
-      <c r="AG86" s="9"/>
-      <c r="AH86" s="9"/>
-      <c r="AI86" s="9"/>
-      <c r="AJ86" s="9"/>
-      <c r="AK86" s="9"/>
-      <c r="AL86" s="9"/>
-      <c r="AM86" s="9"/>
-      <c r="AN86" s="9"/>
-      <c r="AO86" s="9"/>
-      <c r="AP86" s="9"/>
-      <c r="AQ86" s="9"/>
-      <c r="AR86" s="9"/>
-      <c r="AS86" s="9"/>
-      <c r="AT86" s="9"/>
-      <c r="AU86" s="9"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="12"/>
@@ -4799,8 +4826,8 @@
     </row>
     <row r="89" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="12"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -5325,30 +5352,271 @@
       <c r="AT99" s="9"/>
       <c r="AU99" s="9"/>
     </row>
-    <row r="100" spans="1:47" ht="18" customHeight="1">
+    <row r="100" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="12"/>
-    </row>
-    <row r="101" spans="1:47" ht="18" customHeight="1">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="9"/>
+      <c r="AD100" s="9"/>
+      <c r="AE100" s="9"/>
+      <c r="AF100" s="9"/>
+      <c r="AG100" s="9"/>
+      <c r="AH100" s="9"/>
+      <c r="AI100" s="9"/>
+      <c r="AJ100" s="9"/>
+      <c r="AK100" s="9"/>
+      <c r="AL100" s="9"/>
+      <c r="AM100" s="9"/>
+      <c r="AN100" s="9"/>
+      <c r="AO100" s="9"/>
+      <c r="AP100" s="9"/>
+      <c r="AQ100" s="9"/>
+      <c r="AR100" s="9"/>
+      <c r="AS100" s="9"/>
+      <c r="AT100" s="9"/>
+      <c r="AU100" s="9"/>
+    </row>
+    <row r="101" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="12"/>
-    </row>
-    <row r="102" spans="1:47" ht="18" customHeight="1">
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="9"/>
+      <c r="AD101" s="9"/>
+      <c r="AE101" s="9"/>
+      <c r="AF101" s="9"/>
+      <c r="AG101" s="9"/>
+      <c r="AH101" s="9"/>
+      <c r="AI101" s="9"/>
+      <c r="AJ101" s="9"/>
+      <c r="AK101" s="9"/>
+      <c r="AL101" s="9"/>
+      <c r="AM101" s="9"/>
+      <c r="AN101" s="9"/>
+      <c r="AO101" s="9"/>
+      <c r="AP101" s="9"/>
+      <c r="AQ101" s="9"/>
+      <c r="AR101" s="9"/>
+      <c r="AS101" s="9"/>
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="9"/>
+    </row>
+    <row r="102" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="12"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="9"/>
+      <c r="AD102" s="9"/>
+      <c r="AE102" s="9"/>
+      <c r="AF102" s="9"/>
+      <c r="AG102" s="9"/>
+      <c r="AH102" s="9"/>
+      <c r="AI102" s="9"/>
+      <c r="AJ102" s="9"/>
+      <c r="AK102" s="9"/>
+      <c r="AL102" s="9"/>
+      <c r="AM102" s="9"/>
+      <c r="AN102" s="9"/>
+      <c r="AO102" s="9"/>
+      <c r="AP102" s="9"/>
+      <c r="AQ102" s="9"/>
+      <c r="AR102" s="9"/>
+      <c r="AS102" s="9"/>
+      <c r="AT102" s="9"/>
+      <c r="AU102" s="9"/>
+    </row>
+    <row r="103" spans="1:47" ht="18" customHeight="1">
+      <c r="A103" s="12"/>
+    </row>
+    <row r="104" spans="1:47" ht="18" customHeight="1">
+      <c r="A104" s="12"/>
+    </row>
+    <row r="105" spans="1:47" ht="18" customHeight="1">
+      <c r="A105" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="154">
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="K45:R45"/>
+    <mergeCell ref="S39:AE39"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="S40:AE40"/>
+    <mergeCell ref="S41:AE41"/>
+    <mergeCell ref="S42:AE42"/>
+    <mergeCell ref="S43:AE43"/>
+    <mergeCell ref="S44:AE44"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="S18:AE18"/>
     <mergeCell ref="K36:R36"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="K52:R52"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="S31:AE31"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S37:AE37"/>
+    <mergeCell ref="S38:AE38"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K56:R56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="S34:AE34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="S35:AE35"/>
+    <mergeCell ref="C29:J45"/>
     <mergeCell ref="K29:R29"/>
     <mergeCell ref="S29:AE29"/>
-    <mergeCell ref="S46:AE46"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="S30:AE30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:AE33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="S45:AE45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="S57:AE57"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S16:AE16"/>
+    <mergeCell ref="S14:AE14"/>
+    <mergeCell ref="S15:AE15"/>
+    <mergeCell ref="S17:AE17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="S9:AE9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="S7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:AE12"/>
     <mergeCell ref="K11:R11"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="S11:AE11"/>
-    <mergeCell ref="C11:J25"/>
+    <mergeCell ref="C11:J28"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="AF1:AJ1"/>
@@ -5369,121 +5637,30 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:AE9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="S7:AE7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:AE13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S16:AE16"/>
-    <mergeCell ref="S14:AE14"/>
-    <mergeCell ref="S15:AE15"/>
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="S31:AE31"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="K55:R55"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="K32:R32"/>
     <mergeCell ref="S32:AE32"/>
-    <mergeCell ref="C26:J42"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:AE26"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="S27:AE27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="S30:AE30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="S42:AE42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K54:R54"/>
-    <mergeCell ref="S54:AE54"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="K45:R45"/>
-    <mergeCell ref="S45:AE45"/>
+    <mergeCell ref="S49:AE49"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="K49:R49"/>
     <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:AE48"/>
+    <mergeCell ref="K52:R52"/>
     <mergeCell ref="K51:R51"/>
+    <mergeCell ref="K54:R54"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C46:J57"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="S46:AE46"/>
+    <mergeCell ref="K50:R50"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C43:J54"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="S43:AE43"/>
     <mergeCell ref="K47:R47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="S44:AE44"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="S18:AE18"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="S28:AE28"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S34:AE34"/>
-    <mergeCell ref="S35:AE35"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="S36:AE36"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="S37:AE37"/>
-    <mergeCell ref="S38:AE38"/>
-    <mergeCell ref="S39:AE39"/>
-    <mergeCell ref="S40:AE40"/>
-    <mergeCell ref="S41:AE41"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="S47:AE47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5조_화면목록.xlsx
+++ b/5조_화면목록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516DBAB1-4BAF-4D75-91FE-EB32928B73AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD67EE88-1A16-4FE0-8EA8-706ADFC046D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="2025" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12420" yWindow="1230" windowWidth="14370" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>화면 목록</t>
     <phoneticPr fontId="4"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 변경 화면</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>도서 관리 시스템</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -353,10 +349,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>COM_012</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>COM_006</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -454,6 +446,10 @@
   </si>
   <si>
     <t>USR_018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -908,43 +904,6 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color rgb="FFBFBFBF"/>
       </top>
       <bottom style="thin">
@@ -1020,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1097,12 +1056,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1112,6 +1065,81 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1121,6 +1149,171 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1130,261 +1323,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1392,15 +1330,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1747,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU105"/>
+  <dimension ref="A1:AU104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW25" sqref="AW25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -1762,143 +1691,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="75" t="s">
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="75" t="s">
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="77"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="87"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="86"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="96"/>
     </row>
     <row r="3" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="89"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="99"/>
     </row>
     <row r="4" spans="1:47" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="2"/>
@@ -1948,98 +1877,98 @@
       <c r="AU4" s="6"/>
     </row>
     <row r="5" spans="1:47" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="107" t="s">
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="94" t="s">
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="95"/>
-      <c r="AO5" s="96"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="101"/>
+      <c r="AO5" s="102"/>
     </row>
     <row r="6" spans="1:47" ht="18" customHeight="1">
-      <c r="A6" s="44">
+      <c r="A6" s="39">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="97" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="90" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="103" t="s">
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="105"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="111"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -2052,43 +1981,43 @@
       <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:47" ht="18" customHeight="1">
-      <c r="A7" s="44">
+      <c r="A7" s="39">
         <v>2</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="91" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="93"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -2101,43 +2030,43 @@
       <c r="AO7" s="17"/>
     </row>
     <row r="8" spans="1:47" ht="18" customHeight="1">
-      <c r="A8" s="44">
+      <c r="A8" s="39">
         <v>3</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="91" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="93"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="59"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -2150,43 +2079,43 @@
       <c r="AO8" s="17"/>
     </row>
     <row r="9" spans="1:47" ht="18" customHeight="1">
-      <c r="A9" s="44">
+      <c r="A9" s="39">
         <v>4</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="91" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="93"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -2199,43 +2128,43 @@
       <c r="AO9" s="17"/>
     </row>
     <row r="10" spans="1:47" ht="18" customHeight="1">
-      <c r="A10" s="44">
+      <c r="A10" s="39">
         <v>5</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="91" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="93"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="59"/>
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
@@ -2248,45 +2177,45 @@
       <c r="AO10" s="19"/>
     </row>
     <row r="11" spans="1:47" ht="18" customHeight="1">
-      <c r="A11" s="44">
+      <c r="A11" s="39">
         <v>6</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="51" t="s">
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="54"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="47"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
@@ -2299,43 +2228,43 @@
       <c r="AO11" s="11"/>
     </row>
     <row r="12" spans="1:47" ht="18" customHeight="1">
-      <c r="A12" s="44">
+      <c r="A12" s="39">
         <v>7</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="54"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="47"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
@@ -2348,43 +2277,43 @@
       <c r="AO12" s="11"/>
     </row>
     <row r="13" spans="1:47" ht="18" customHeight="1">
-      <c r="A13" s="44">
+      <c r="A13" s="39">
         <v>8</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="54"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="47"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
@@ -2397,43 +2326,43 @@
       <c r="AO13" s="11"/>
     </row>
     <row r="14" spans="1:47" ht="18" customHeight="1">
-      <c r="A14" s="44">
+      <c r="A14" s="39">
         <v>9</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="54"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="47"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
@@ -2446,43 +2375,43 @@
       <c r="AO14" s="11"/>
     </row>
     <row r="15" spans="1:47" ht="18" customHeight="1">
-      <c r="A15" s="44">
+      <c r="A15" s="39">
         <v>10</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="54"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="47"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
@@ -2495,43 +2424,43 @@
       <c r="AO15" s="11"/>
     </row>
     <row r="16" spans="1:47" ht="18" customHeight="1">
-      <c r="A16" s="44">
-        <v>16</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="54"/>
+      <c r="A16" s="39">
+        <v>11</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="47"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
@@ -2544,43 +2473,43 @@
       <c r="AO16" s="11"/>
     </row>
     <row r="17" spans="1:41" ht="18" customHeight="1">
-      <c r="A17" s="44">
-        <v>19</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="54"/>
+      <c r="A17" s="39">
+        <v>12</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="47"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
@@ -2593,43 +2522,43 @@
       <c r="AO17" s="11"/>
     </row>
     <row r="18" spans="1:41" ht="18" customHeight="1">
-      <c r="A18" s="44">
-        <v>21</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="54"/>
+      <c r="A18" s="39">
+        <v>13</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="47"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
@@ -2642,43 +2571,43 @@
       <c r="AO18" s="11"/>
     </row>
     <row r="19" spans="1:41" ht="18" customHeight="1">
-      <c r="A19" s="44">
-        <v>23</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="30"/>
+      <c r="A19" s="39">
+        <v>14</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="28"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
@@ -2691,43 +2620,43 @@
       <c r="AO19" s="11"/>
     </row>
     <row r="20" spans="1:41" ht="18" customHeight="1">
-      <c r="A20" s="44">
-        <v>25</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="30"/>
+      <c r="A20" s="39">
+        <v>15</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="28"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
@@ -2740,43 +2669,43 @@
       <c r="AO20" s="11"/>
     </row>
     <row r="21" spans="1:41" ht="18" customHeight="1">
-      <c r="A21" s="44">
-        <v>28</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="30"/>
+      <c r="A21" s="39">
+        <v>16</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="28"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
@@ -2789,43 +2718,43 @@
       <c r="AO21" s="11"/>
     </row>
     <row r="22" spans="1:41" ht="18" customHeight="1">
-      <c r="A22" s="44">
-        <v>28</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="30"/>
+      <c r="A22" s="39">
+        <v>17</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="28"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -2838,43 +2767,43 @@
       <c r="AO22" s="11"/>
     </row>
     <row r="23" spans="1:41" ht="18" customHeight="1">
-      <c r="A23" s="41">
-        <v>29</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="30"/>
+      <c r="A23" s="39">
+        <v>18</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="28"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
       <c r="AH23" s="10"/>
@@ -2887,43 +2816,43 @@
       <c r="AO23" s="11"/>
     </row>
     <row r="24" spans="1:41" ht="18" customHeight="1">
-      <c r="A24" s="44">
-        <v>30</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="30"/>
+      <c r="A24" s="39">
+        <v>19</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="28"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
@@ -2936,43 +2865,43 @@
       <c r="AO24" s="11"/>
     </row>
     <row r="25" spans="1:41" ht="18" customHeight="1">
-      <c r="A25" s="44">
-        <v>34</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="30"/>
+      <c r="A25" s="39">
+        <v>20</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="28"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10"/>
@@ -2985,43 +2914,43 @@
       <c r="AO25" s="11"/>
     </row>
     <row r="26" spans="1:41" ht="18" customHeight="1">
-      <c r="A26" s="44">
-        <v>34</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="30"/>
+      <c r="A26" s="39">
+        <v>21</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="28"/>
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
       <c r="AH26" s="10"/>
@@ -3034,43 +2963,43 @@
       <c r="AO26" s="11"/>
     </row>
     <row r="27" spans="1:41" ht="18" customHeight="1">
-      <c r="A27" s="44">
-        <v>34</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="30"/>
+      <c r="A27" s="39">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="28"/>
       <c r="AF27" s="10"/>
       <c r="AG27" s="10"/>
       <c r="AH27" s="10"/>
@@ -3083,43 +3012,43 @@
       <c r="AO27" s="11"/>
     </row>
     <row r="28" spans="1:41" ht="18" customHeight="1">
-      <c r="A28" s="44">
-        <v>34</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="30"/>
+      <c r="A28" s="39">
+        <v>23</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="28"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
       <c r="AH28" s="10"/>
@@ -3132,45 +3061,45 @@
       <c r="AO28" s="11"/>
     </row>
     <row r="29" spans="1:41" ht="18" customHeight="1">
-      <c r="A29" s="44">
-        <v>35</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="110" t="s">
+      <c r="A29" s="39">
+        <v>24</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="40" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="118"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="56"/>
       <c r="AF29" s="22"/>
       <c r="AG29" s="22"/>
       <c r="AH29" s="22"/>
@@ -3183,43 +3112,43 @@
       <c r="AO29" s="23"/>
     </row>
     <row r="30" spans="1:41" ht="18" customHeight="1">
-      <c r="A30" s="44">
-        <v>37</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="47"/>
+      <c r="A30" s="39">
+        <v>25</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="44"/>
       <c r="AF30" s="22"/>
       <c r="AG30" s="22"/>
       <c r="AH30" s="22"/>
@@ -3232,43 +3161,43 @@
       <c r="AO30" s="23"/>
     </row>
     <row r="31" spans="1:41" ht="18" customHeight="1">
-      <c r="A31" s="44">
-        <v>38</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="47"/>
+      <c r="A31" s="39">
+        <v>26</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="44"/>
       <c r="AF31" s="22"/>
       <c r="AG31" s="22"/>
       <c r="AH31" s="22"/>
@@ -3281,43 +3210,43 @@
       <c r="AO31" s="23"/>
     </row>
     <row r="32" spans="1:41" ht="18" customHeight="1">
-      <c r="A32" s="44">
-        <v>38</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="47"/>
+      <c r="A32" s="39">
+        <v>27</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="44"/>
       <c r="AF32" s="22"/>
       <c r="AG32" s="22"/>
       <c r="AH32" s="22"/>
@@ -3330,43 +3259,43 @@
       <c r="AO32" s="23"/>
     </row>
     <row r="33" spans="1:41" ht="18" customHeight="1">
-      <c r="A33" s="44">
+      <c r="A33" s="39">
+        <v>28</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="47"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="44"/>
       <c r="AF33" s="22"/>
       <c r="AG33" s="22"/>
       <c r="AH33" s="22"/>
@@ -3379,43 +3308,43 @@
       <c r="AO33" s="23"/>
     </row>
     <row r="34" spans="1:41" ht="18" customHeight="1">
-      <c r="A34" s="44">
-        <v>40</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="47"/>
+      <c r="A34" s="39">
+        <v>29</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="44"/>
       <c r="AF34" s="22"/>
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
@@ -3428,43 +3357,43 @@
       <c r="AO34" s="23"/>
     </row>
     <row r="35" spans="1:41" ht="18" customHeight="1">
-      <c r="A35" s="44">
-        <v>41</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="47"/>
+      <c r="A35" s="39">
+        <v>30</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="44"/>
       <c r="AF35" s="22"/>
       <c r="AG35" s="22"/>
       <c r="AH35" s="22"/>
@@ -3477,43 +3406,43 @@
       <c r="AO35" s="23"/>
     </row>
     <row r="36" spans="1:41" ht="18" customHeight="1">
-      <c r="A36" s="44">
-        <v>42</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="33"/>
+      <c r="A36" s="39">
+        <v>31</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="31"/>
       <c r="AF36" s="22"/>
       <c r="AG36" s="22"/>
       <c r="AH36" s="22"/>
@@ -3526,43 +3455,43 @@
       <c r="AO36" s="23"/>
     </row>
     <row r="37" spans="1:41" ht="18" customHeight="1">
-      <c r="A37" s="44">
-        <v>43</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="47"/>
+      <c r="A37" s="39">
+        <v>32</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="44"/>
       <c r="AF37" s="22"/>
       <c r="AG37" s="22"/>
       <c r="AH37" s="22"/>
@@ -3575,43 +3504,43 @@
       <c r="AO37" s="23"/>
     </row>
     <row r="38" spans="1:41" ht="18" customHeight="1">
-      <c r="A38" s="41">
-        <v>44</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="47"/>
+      <c r="A38" s="39">
+        <v>33</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="44"/>
       <c r="AF38" s="22"/>
       <c r="AG38" s="22"/>
       <c r="AH38" s="22"/>
@@ -3624,43 +3553,43 @@
       <c r="AO38" s="23"/>
     </row>
     <row r="39" spans="1:41" ht="18" customHeight="1">
-      <c r="A39" s="44">
-        <v>46</v>
-      </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39" s="46"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="46"/>
-      <c r="AA39" s="46"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="46"/>
-      <c r="AE39" s="47"/>
+      <c r="A39" s="39">
+        <v>34</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="44"/>
       <c r="AF39" s="22"/>
       <c r="AG39" s="22"/>
       <c r="AH39" s="22"/>
@@ -3673,43 +3602,43 @@
       <c r="AO39" s="23"/>
     </row>
     <row r="40" spans="1:41" ht="18" customHeight="1">
-      <c r="A40" s="44">
-        <v>48</v>
-      </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="47"/>
+      <c r="A40" s="39">
+        <v>35</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="44"/>
       <c r="AF40" s="22"/>
       <c r="AG40" s="22"/>
       <c r="AH40" s="22"/>
@@ -3722,43 +3651,43 @@
       <c r="AO40" s="23"/>
     </row>
     <row r="41" spans="1:41" ht="18" customHeight="1">
-      <c r="A41" s="44">
-        <v>49</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="46"/>
-      <c r="AA41" s="46"/>
-      <c r="AB41" s="46"/>
-      <c r="AC41" s="46"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="47"/>
+      <c r="A41" s="39">
+        <v>36</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="44"/>
       <c r="AF41" s="22"/>
       <c r="AG41" s="22"/>
       <c r="AH41" s="22"/>
@@ -3771,43 +3700,43 @@
       <c r="AO41" s="23"/>
     </row>
     <row r="42" spans="1:41" ht="18" customHeight="1">
-      <c r="A42" s="44">
-        <v>51</v>
-      </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="47"/>
+      <c r="A42" s="39">
+        <v>37</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="44"/>
       <c r="AF42" s="22"/>
       <c r="AG42" s="22"/>
       <c r="AH42" s="22"/>
@@ -3820,43 +3749,43 @@
       <c r="AO42" s="23"/>
     </row>
     <row r="43" spans="1:41" ht="18" customHeight="1">
-      <c r="A43" s="44">
-        <v>53</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="47"/>
+      <c r="A43" s="39">
+        <v>38</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="43"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="44"/>
       <c r="AF43" s="22"/>
       <c r="AG43" s="22"/>
       <c r="AH43" s="22"/>
@@ -3869,43 +3798,43 @@
       <c r="AO43" s="23"/>
     </row>
     <row r="44" spans="1:41" ht="18" customHeight="1">
-      <c r="A44" s="44">
-        <v>54</v>
-      </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="47"/>
+      <c r="A44" s="39">
+        <v>39</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="44"/>
       <c r="AF44" s="22"/>
       <c r="AG44" s="22"/>
       <c r="AH44" s="22"/>
@@ -3918,43 +3847,43 @@
       <c r="AO44" s="23"/>
     </row>
     <row r="45" spans="1:41" ht="18" customHeight="1">
-      <c r="A45" s="44">
-        <v>55</v>
-      </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="47"/>
+      <c r="A45" s="39">
+        <v>40</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="44"/>
       <c r="AF45" s="22"/>
       <c r="AG45" s="22"/>
       <c r="AH45" s="22"/>
@@ -3967,43 +3896,45 @@
       <c r="AO45" s="23"/>
     </row>
     <row r="46" spans="1:41" ht="18" customHeight="1">
-      <c r="A46" s="44">
-        <v>57</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="48" t="s">
+      <c r="A46" s="39">
+        <v>41</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="50"/>
+      <c r="T46" s="113"/>
+      <c r="U46" s="113"/>
+      <c r="V46" s="113"/>
+      <c r="W46" s="113"/>
+      <c r="X46" s="113"/>
+      <c r="Y46" s="113"/>
+      <c r="Z46" s="113"/>
+      <c r="AA46" s="113"/>
+      <c r="AB46" s="113"/>
+      <c r="AC46" s="113"/>
+      <c r="AD46" s="113"/>
+      <c r="AE46" s="114"/>
       <c r="AF46" s="20"/>
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
@@ -4016,43 +3947,43 @@
       <c r="AO46" s="21"/>
     </row>
     <row r="47" spans="1:41" ht="18" customHeight="1">
-      <c r="A47" s="44">
-        <v>58</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="T47" s="49"/>
-      <c r="U47" s="49"/>
-      <c r="V47" s="49"/>
-      <c r="W47" s="49"/>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="49"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="49"/>
-      <c r="AC47" s="49"/>
-      <c r="AD47" s="49"/>
-      <c r="AE47" s="50"/>
+      <c r="A47" s="39">
+        <v>42</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="T47" s="113"/>
+      <c r="U47" s="113"/>
+      <c r="V47" s="113"/>
+      <c r="W47" s="113"/>
+      <c r="X47" s="113"/>
+      <c r="Y47" s="113"/>
+      <c r="Z47" s="113"/>
+      <c r="AA47" s="113"/>
+      <c r="AB47" s="113"/>
+      <c r="AC47" s="113"/>
+      <c r="AD47" s="113"/>
+      <c r="AE47" s="114"/>
       <c r="AF47" s="24"/>
       <c r="AG47" s="24"/>
       <c r="AH47" s="24"/>
@@ -4065,43 +3996,43 @@
       <c r="AO47" s="25"/>
     </row>
     <row r="48" spans="1:41" ht="18" customHeight="1">
-      <c r="A48" s="41">
-        <v>60</v>
-      </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="T48" s="49"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="49"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="50"/>
+      <c r="A48" s="39">
+        <v>43</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="113"/>
+      <c r="W48" s="113"/>
+      <c r="X48" s="113"/>
+      <c r="Y48" s="113"/>
+      <c r="Z48" s="113"/>
+      <c r="AA48" s="113"/>
+      <c r="AB48" s="113"/>
+      <c r="AC48" s="113"/>
+      <c r="AD48" s="113"/>
+      <c r="AE48" s="114"/>
       <c r="AF48" s="24"/>
       <c r="AG48" s="24"/>
       <c r="AH48" s="24"/>
@@ -4114,43 +4045,43 @@
       <c r="AO48" s="25"/>
     </row>
     <row r="49" spans="1:41" ht="18" customHeight="1">
-      <c r="A49" s="41">
-        <v>60</v>
-      </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="T49" s="49"/>
-      <c r="U49" s="49"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="49"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="49"/>
-      <c r="AC49" s="49"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="50"/>
+      <c r="A49" s="39">
+        <v>44</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="T49" s="113"/>
+      <c r="U49" s="113"/>
+      <c r="V49" s="113"/>
+      <c r="W49" s="113"/>
+      <c r="X49" s="113"/>
+      <c r="Y49" s="113"/>
+      <c r="Z49" s="113"/>
+      <c r="AA49" s="113"/>
+      <c r="AB49" s="113"/>
+      <c r="AC49" s="113"/>
+      <c r="AD49" s="113"/>
+      <c r="AE49" s="114"/>
       <c r="AF49" s="24"/>
       <c r="AG49" s="24"/>
       <c r="AH49" s="24"/>
@@ -4163,43 +4094,43 @@
       <c r="AO49" s="25"/>
     </row>
     <row r="50" spans="1:41" ht="18" customHeight="1">
-      <c r="A50" s="41">
-        <v>61</v>
-      </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="36"/>
+      <c r="A50" s="39">
+        <v>45</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="34"/>
       <c r="AF50" s="20"/>
       <c r="AG50" s="20"/>
       <c r="AH50" s="20"/>
@@ -4212,43 +4143,43 @@
       <c r="AO50" s="21"/>
     </row>
     <row r="51" spans="1:41" ht="18" customHeight="1">
-      <c r="A51" s="41">
-        <v>62</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="36"/>
+      <c r="A51" s="39">
+        <v>46</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33"/>
+      <c r="AE51" s="34"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="20"/>
       <c r="AH51" s="20"/>
@@ -4261,43 +4192,43 @@
       <c r="AO51" s="21"/>
     </row>
     <row r="52" spans="1:41" ht="18" customHeight="1">
-      <c r="A52" s="41">
-        <v>63</v>
-      </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="35"/>
-      <c r="AE52" s="36"/>
+      <c r="A52" s="39">
+        <v>47</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="34"/>
       <c r="AF52" s="24"/>
       <c r="AG52" s="24"/>
       <c r="AH52" s="24"/>
@@ -4310,43 +4241,43 @@
       <c r="AO52" s="25"/>
     </row>
     <row r="53" spans="1:41" ht="18" customHeight="1">
-      <c r="A53" s="41">
-        <v>64</v>
-      </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="37"/>
+      <c r="A53" s="39">
+        <v>48</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="35"/>
       <c r="AF53" s="24"/>
       <c r="AG53" s="24"/>
       <c r="AH53" s="24"/>
@@ -4359,43 +4290,43 @@
       <c r="AO53" s="25"/>
     </row>
     <row r="54" spans="1:41" ht="18" customHeight="1">
-      <c r="A54" s="41">
-        <v>65</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="35"/>
-      <c r="AE54" s="37"/>
+      <c r="A54" s="39">
+        <v>49</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+      <c r="AE54" s="35"/>
       <c r="AF54" s="24"/>
       <c r="AG54" s="24"/>
       <c r="AH54" s="24"/>
@@ -4408,43 +4339,43 @@
       <c r="AO54" s="25"/>
     </row>
     <row r="55" spans="1:41" ht="18" customHeight="1">
-      <c r="A55" s="41">
-        <v>66</v>
-      </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="37"/>
+      <c r="A55" s="39">
+        <v>50</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="35"/>
       <c r="AF55" s="24"/>
       <c r="AG55" s="24"/>
       <c r="AH55" s="24"/>
@@ -4457,43 +4388,43 @@
       <c r="AO55" s="25"/>
     </row>
     <row r="56" spans="1:41" ht="18" customHeight="1">
-      <c r="A56" s="41">
-        <v>66</v>
-      </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="37"/>
+      <c r="A56" s="39">
+        <v>51</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="35"/>
       <c r="AF56" s="24"/>
       <c r="AG56" s="24"/>
       <c r="AH56" s="24"/>
@@ -4506,53 +4437,10 @@
       <c r="AO56" s="25"/>
     </row>
     <row r="57" spans="1:41" ht="18" customHeight="1">
-      <c r="A57" s="41">
-        <v>67</v>
-      </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="T57" s="120"/>
-      <c r="U57" s="120"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="120"/>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="120"/>
-      <c r="AB57" s="120"/>
-      <c r="AC57" s="120"/>
-      <c r="AD57" s="120"/>
-      <c r="AE57" s="121"/>
-      <c r="AF57" s="26"/>
-      <c r="AG57" s="26"/>
-      <c r="AH57" s="26"/>
-      <c r="AI57" s="26"/>
-      <c r="AJ57" s="26"/>
-      <c r="AK57" s="26"/>
-      <c r="AL57" s="26"/>
-      <c r="AM57" s="26"/>
-      <c r="AN57" s="26"/>
-      <c r="AO57" s="27"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:41" ht="18" customHeight="1">
       <c r="A58" s="12"/>
@@ -4722,11 +4610,53 @@
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="1:47" ht="18" customHeight="1">
+    <row r="86" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="12"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="9"/>
+      <c r="AD86" s="9"/>
+      <c r="AE86" s="9"/>
+      <c r="AF86" s="9"/>
+      <c r="AG86" s="9"/>
+      <c r="AH86" s="9"/>
+      <c r="AI86" s="9"/>
+      <c r="AJ86" s="9"/>
+      <c r="AK86" s="9"/>
+      <c r="AL86" s="9"/>
+      <c r="AM86" s="9"/>
+      <c r="AN86" s="9"/>
+      <c r="AO86" s="9"/>
+      <c r="AP86" s="9"/>
+      <c r="AQ86" s="9"/>
+      <c r="AR86" s="9"/>
+      <c r="AS86" s="9"/>
+      <c r="AT86" s="9"/>
+      <c r="AU86" s="9"/>
     </row>
     <row r="87" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="12"/>
@@ -4778,8 +4708,8 @@
     </row>
     <row r="88" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="12"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -4826,8 +4756,8 @@
     </row>
     <row r="89" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -5448,53 +5378,8 @@
       <c r="AT101" s="9"/>
       <c r="AU101" s="9"/>
     </row>
-    <row r="102" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
+    <row r="102" spans="1:47" ht="18" customHeight="1">
       <c r="A102" s="12"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="9"/>
-      <c r="Y102" s="9"/>
-      <c r="Z102" s="9"/>
-      <c r="AA102" s="9"/>
-      <c r="AB102" s="9"/>
-      <c r="AC102" s="9"/>
-      <c r="AD102" s="9"/>
-      <c r="AE102" s="9"/>
-      <c r="AF102" s="9"/>
-      <c r="AG102" s="9"/>
-      <c r="AH102" s="9"/>
-      <c r="AI102" s="9"/>
-      <c r="AJ102" s="9"/>
-      <c r="AK102" s="9"/>
-      <c r="AL102" s="9"/>
-      <c r="AM102" s="9"/>
-      <c r="AN102" s="9"/>
-      <c r="AO102" s="9"/>
-      <c r="AP102" s="9"/>
-      <c r="AQ102" s="9"/>
-      <c r="AR102" s="9"/>
-      <c r="AS102" s="9"/>
-      <c r="AT102" s="9"/>
-      <c r="AU102" s="9"/>
     </row>
     <row r="103" spans="1:47" ht="18" customHeight="1">
       <c r="A103" s="12"/>
@@ -5502,20 +5387,123 @@
     <row r="104" spans="1:47" ht="18" customHeight="1">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:47" ht="18" customHeight="1">
-      <c r="A105" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
+  <mergeCells count="151">
+    <mergeCell ref="S49:AE49"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="K49:R49"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:AE48"/>
+    <mergeCell ref="K52:R52"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="K54:R54"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C46:J56"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="S46:AE46"/>
+    <mergeCell ref="K50:R50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="K47:R47"/>
+    <mergeCell ref="S47:AE47"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:AE8"/>
+    <mergeCell ref="AF5:AO5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J10"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:AE6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:AE9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="S7:AE7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:AE12"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="S11:AE11"/>
+    <mergeCell ref="C11:J28"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:AE10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:AE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S16:AE16"/>
+    <mergeCell ref="S14:AE14"/>
+    <mergeCell ref="S15:AE15"/>
+    <mergeCell ref="S17:AE17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="S34:AE34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="S35:AE35"/>
+    <mergeCell ref="C29:J45"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:AE29"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="S30:AE30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:AE33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="S45:AE45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="S44:AE44"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="S18:AE18"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="S31:AE31"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S37:AE37"/>
+    <mergeCell ref="S38:AE38"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="S32:AE32"/>
+    <mergeCell ref="S39:AE39"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="S40:AE40"/>
+    <mergeCell ref="S41:AE41"/>
+    <mergeCell ref="S42:AE42"/>
+    <mergeCell ref="S43:AE43"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="K15:R15"/>
     <mergeCell ref="K18:R18"/>
@@ -5537,130 +5525,21 @@
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="K27:R27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="K44:R44"/>
     <mergeCell ref="K45:R45"/>
-    <mergeCell ref="S39:AE39"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="S40:AE40"/>
-    <mergeCell ref="S41:AE41"/>
-    <mergeCell ref="S42:AE42"/>
-    <mergeCell ref="S43:AE43"/>
-    <mergeCell ref="S44:AE44"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="S18:AE18"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="S31:AE31"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S37:AE37"/>
-    <mergeCell ref="S38:AE38"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K28:R28"/>
     <mergeCell ref="K56:R56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="S34:AE34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="S35:AE35"/>
-    <mergeCell ref="C29:J45"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="S29:AE29"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="S30:AE30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="S33:AE33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="S45:AE45"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K57:R57"/>
-    <mergeCell ref="S57:AE57"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:AE13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S16:AE16"/>
-    <mergeCell ref="S14:AE14"/>
-    <mergeCell ref="S15:AE15"/>
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="S9:AE9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="S7:AE7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="S11:AE11"/>
-    <mergeCell ref="C11:J28"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:AE8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="S10:AE10"/>
-    <mergeCell ref="AF5:AO5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J10"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:AE6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K39:R39"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="K55:R55"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="S32:AE32"/>
-    <mergeCell ref="S49:AE49"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="K49:R49"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="S48:AE48"/>
-    <mergeCell ref="K52:R52"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="K54:R54"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C46:J57"/>
-    <mergeCell ref="K46:R46"/>
-    <mergeCell ref="S46:AE46"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="K47:R47"/>
-    <mergeCell ref="S47:AE47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5조_화면목록.xlsx
+++ b/5조_화면목록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD67EE88-1A16-4FE0-8EA8-706ADFC046D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1030E401-F417-47C9-AD22-FD3F7FB23930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="1230" windowWidth="14370" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>화면 목록</t>
     <phoneticPr fontId="4"/>
@@ -141,9 +141,6 @@
     <t>도서 삭제 화면</t>
   </si>
   <si>
-    <t>건의사항 수정 화면</t>
-  </si>
-  <si>
     <t>건의사항 확인 여부 화면</t>
   </si>
   <si>
@@ -450,6 +447,18 @@
   </si>
   <si>
     <t>공통</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건의사항 댓글 수정 화면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USR_019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 화면</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1092,18 +1101,21 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1113,6 +1125,33 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1122,32 +1161,32 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1158,6 +1197,120 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1170,150 +1323,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1330,6 +1339,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1676,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU104"/>
+  <dimension ref="A1:AU105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30:AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1"/>
@@ -1691,143 +1703,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="83" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="85" t="s">
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="85" t="s">
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="87"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="83"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="88" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="96"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="92"/>
     </row>
     <row r="3" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="98"/>
-      <c r="AO3" s="99"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="95"/>
     </row>
     <row r="4" spans="1:47" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="2"/>
@@ -1877,98 +1889,98 @@
       <c r="AU4" s="6"/>
     </row>
     <row r="5" spans="1:47" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="61" t="s">
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="100" t="s">
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="101"/>
-      <c r="AK5" s="101"/>
-      <c r="AL5" s="101"/>
-      <c r="AM5" s="101"/>
-      <c r="AN5" s="101"/>
-      <c r="AO5" s="102"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="98"/>
     </row>
     <row r="6" spans="1:47" ht="18" customHeight="1">
       <c r="A6" s="39">
         <v>1</v>
       </c>
       <c r="B6" s="39"/>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="64" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="109" t="s">
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="111"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="107"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -1985,39 +1997,39 @@
         <v>2</v>
       </c>
       <c r="B7" s="39"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="57" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="59"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="69"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -2034,39 +2046,39 @@
         <v>3</v>
       </c>
       <c r="B8" s="39"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="57" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="59"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="69"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -2083,39 +2095,39 @@
         <v>4</v>
       </c>
       <c r="B9" s="39"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="57" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="59"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="69"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -2132,39 +2144,39 @@
         <v>5</v>
       </c>
       <c r="B10" s="39"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="57" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="59"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="69"/>
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
@@ -2181,41 +2193,41 @@
         <v>6</v>
       </c>
       <c r="B11" s="39"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="40" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="47"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
@@ -2232,39 +2244,39 @@
         <v>7</v>
       </c>
       <c r="B12" s="39"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="47"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
@@ -2281,39 +2293,39 @@
         <v>8</v>
       </c>
       <c r="B13" s="39"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="47"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
@@ -2330,39 +2342,39 @@
         <v>9</v>
       </c>
       <c r="B14" s="39"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="47"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
@@ -2379,39 +2391,39 @@
         <v>10</v>
       </c>
       <c r="B15" s="39"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="47"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="10"/>
@@ -2428,39 +2440,39 @@
         <v>11</v>
       </c>
       <c r="B16" s="39"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="47"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="57"/>
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
       <c r="AH16" s="10"/>
@@ -2477,39 +2489,39 @@
         <v>12</v>
       </c>
       <c r="B17" s="39"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="47"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
       <c r="AH17" s="10"/>
@@ -2526,39 +2538,39 @@
         <v>13</v>
       </c>
       <c r="B18" s="39"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="47"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
       <c r="AH18" s="10"/>
@@ -2575,26 +2587,26 @@
         <v>14</v>
       </c>
       <c r="B19" s="39"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
       <c r="S19" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
@@ -2624,26 +2636,26 @@
         <v>15</v>
       </c>
       <c r="B20" s="39"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
       <c r="S20" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
@@ -2673,26 +2685,26 @@
         <v>16</v>
       </c>
       <c r="B21" s="39"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
       <c r="S21" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
@@ -2722,26 +2734,26 @@
         <v>17</v>
       </c>
       <c r="B22" s="39"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
       <c r="S22" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
@@ -2771,26 +2783,26 @@
         <v>18</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
       <c r="S23" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
@@ -2820,26 +2832,26 @@
         <v>19</v>
       </c>
       <c r="B24" s="39"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
       <c r="S24" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
@@ -2869,26 +2881,26 @@
         <v>20</v>
       </c>
       <c r="B25" s="39"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
       <c r="S25" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T25" s="27"/>
       <c r="U25" s="27"/>
@@ -2918,26 +2930,26 @@
         <v>21</v>
       </c>
       <c r="B26" s="39"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
       <c r="S26" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T26" s="27"/>
       <c r="U26" s="27"/>
@@ -2967,26 +2979,26 @@
         <v>22</v>
       </c>
       <c r="B27" s="39"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
       <c r="S27" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
@@ -3016,26 +3028,26 @@
         <v>23</v>
       </c>
       <c r="B28" s="39"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
       <c r="S28" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
@@ -3061,94 +3073,92 @@
       <c r="AO28" s="11"/>
     </row>
     <row r="29" spans="1:41" ht="18" customHeight="1">
-      <c r="A29" s="39">
-        <v>24</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="23"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="11"/>
     </row>
     <row r="30" spans="1:41" ht="18" customHeight="1">
       <c r="A30" s="39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="39"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="44"/>
+      <c r="C30" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="54"/>
       <c r="AF30" s="22"/>
       <c r="AG30" s="22"/>
       <c r="AH30" s="22"/>
@@ -3162,42 +3172,42 @@
     </row>
     <row r="31" spans="1:41" ht="18" customHeight="1">
       <c r="A31" s="39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="39"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="44"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="45"/>
       <c r="AF31" s="22"/>
       <c r="AG31" s="22"/>
       <c r="AH31" s="22"/>
@@ -3211,42 +3221,42 @@
     </row>
     <row r="32" spans="1:41" ht="18" customHeight="1">
       <c r="A32" s="39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="39"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="44"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="45"/>
       <c r="AF32" s="22"/>
       <c r="AG32" s="22"/>
       <c r="AH32" s="22"/>
@@ -3260,42 +3270,42 @@
     </row>
     <row r="33" spans="1:41" ht="18" customHeight="1">
       <c r="A33" s="39">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="39"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="44"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="45"/>
       <c r="AF33" s="22"/>
       <c r="AG33" s="22"/>
       <c r="AH33" s="22"/>
@@ -3309,42 +3319,42 @@
     </row>
     <row r="34" spans="1:41" ht="18" customHeight="1">
       <c r="A34" s="39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="39"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="44"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="45"/>
       <c r="AF34" s="22"/>
       <c r="AG34" s="22"/>
       <c r="AH34" s="22"/>
@@ -3358,42 +3368,42 @@
     </row>
     <row r="35" spans="1:41" ht="18" customHeight="1">
       <c r="A35" s="39">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="39"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
-      <c r="AA35" s="43"/>
-      <c r="AB35" s="43"/>
-      <c r="AC35" s="43"/>
-      <c r="AD35" s="43"/>
-      <c r="AE35" s="44"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="45"/>
       <c r="AF35" s="22"/>
       <c r="AG35" s="22"/>
       <c r="AH35" s="22"/>
@@ -3407,42 +3417,42 @@
     </row>
     <row r="36" spans="1:41" ht="18" customHeight="1">
       <c r="A36" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="39"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="31"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="45"/>
       <c r="AF36" s="22"/>
       <c r="AG36" s="22"/>
       <c r="AH36" s="22"/>
@@ -3456,42 +3466,42 @@
     </row>
     <row r="37" spans="1:41" ht="18" customHeight="1">
       <c r="A37" s="39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="39"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="43"/>
-      <c r="AE37" s="44"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="31"/>
       <c r="AF37" s="22"/>
       <c r="AG37" s="22"/>
       <c r="AH37" s="22"/>
@@ -3505,42 +3515,42 @@
     </row>
     <row r="38" spans="1:41" ht="18" customHeight="1">
       <c r="A38" s="39">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="39"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="43"/>
-      <c r="AE38" s="44"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="45"/>
       <c r="AF38" s="22"/>
       <c r="AG38" s="22"/>
       <c r="AH38" s="22"/>
@@ -3554,42 +3564,42 @@
     </row>
     <row r="39" spans="1:41" ht="18" customHeight="1">
       <c r="A39" s="39">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="39"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="44"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="45"/>
       <c r="AF39" s="22"/>
       <c r="AG39" s="22"/>
       <c r="AH39" s="22"/>
@@ -3603,42 +3613,42 @@
     </row>
     <row r="40" spans="1:41" ht="18" customHeight="1">
       <c r="A40" s="39">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="39"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="44"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="45"/>
       <c r="AF40" s="22"/>
       <c r="AG40" s="22"/>
       <c r="AH40" s="22"/>
@@ -3652,42 +3662,42 @@
     </row>
     <row r="41" spans="1:41" ht="18" customHeight="1">
       <c r="A41" s="39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="39"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="44"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="45"/>
       <c r="AF41" s="22"/>
       <c r="AG41" s="22"/>
       <c r="AH41" s="22"/>
@@ -3701,42 +3711,42 @@
     </row>
     <row r="42" spans="1:41" ht="18" customHeight="1">
       <c r="A42" s="39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="39"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="44"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="45"/>
       <c r="AF42" s="22"/>
       <c r="AG42" s="22"/>
       <c r="AH42" s="22"/>
@@ -3750,42 +3760,42 @@
     </row>
     <row r="43" spans="1:41" ht="18" customHeight="1">
       <c r="A43" s="39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="39"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="44"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="45"/>
       <c r="AF43" s="22"/>
       <c r="AG43" s="22"/>
       <c r="AH43" s="22"/>
@@ -3799,42 +3809,42 @@
     </row>
     <row r="44" spans="1:41" ht="18" customHeight="1">
       <c r="A44" s="39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="39"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="43"/>
-      <c r="AC44" s="43"/>
-      <c r="AD44" s="43"/>
-      <c r="AE44" s="44"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="45"/>
       <c r="AF44" s="22"/>
       <c r="AG44" s="22"/>
       <c r="AH44" s="22"/>
@@ -3848,42 +3858,42 @@
     </row>
     <row r="45" spans="1:41" ht="18" customHeight="1">
       <c r="A45" s="39">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="39"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="44"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="45"/>
       <c r="AF45" s="22"/>
       <c r="AG45" s="22"/>
       <c r="AH45" s="22"/>
@@ -3897,61 +3907,61 @@
     </row>
     <row r="46" spans="1:41" ht="18" customHeight="1">
       <c r="A46" s="39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="39"/>
-      <c r="C46" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="T46" s="113"/>
-      <c r="U46" s="113"/>
-      <c r="V46" s="113"/>
-      <c r="W46" s="113"/>
-      <c r="X46" s="113"/>
-      <c r="Y46" s="113"/>
-      <c r="Z46" s="113"/>
-      <c r="AA46" s="113"/>
-      <c r="AB46" s="113"/>
-      <c r="AC46" s="113"/>
-      <c r="AD46" s="113"/>
-      <c r="AE46" s="114"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="20"/>
-      <c r="AH46" s="20"/>
-      <c r="AI46" s="20"/>
-      <c r="AJ46" s="20"/>
-      <c r="AK46" s="20"/>
-      <c r="AL46" s="20"/>
-      <c r="AM46" s="20"/>
-      <c r="AN46" s="20"/>
-      <c r="AO46" s="21"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="23"/>
     </row>
     <row r="47" spans="1:41" ht="18" customHeight="1">
       <c r="A47" s="39">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="39"/>
-      <c r="C47" s="115"/>
+      <c r="C47" s="115" t="s">
+        <v>114</v>
+      </c>
       <c r="D47" s="116"/>
       <c r="E47" s="116"/>
       <c r="F47" s="116"/>
@@ -3959,18 +3969,18 @@
       <c r="H47" s="116"/>
       <c r="I47" s="116"/>
       <c r="J47" s="117"/>
-      <c r="K47" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
+      <c r="K47" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
       <c r="S47" s="112" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="T47" s="113"/>
       <c r="U47" s="113"/>
@@ -3984,20 +3994,20 @@
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
       <c r="AE47" s="114"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="24"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="25"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="21"/>
     </row>
     <row r="48" spans="1:41" ht="18" customHeight="1">
       <c r="A48" s="39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="115"/>
@@ -4008,18 +4018,18 @@
       <c r="H48" s="116"/>
       <c r="I48" s="116"/>
       <c r="J48" s="117"/>
-      <c r="K48" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
+      <c r="K48" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
       <c r="S48" s="112" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="T48" s="113"/>
       <c r="U48" s="113"/>
@@ -4046,7 +4056,7 @@
     </row>
     <row r="49" spans="1:41" ht="18" customHeight="1">
       <c r="A49" s="39">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="115"/>
@@ -4057,18 +4067,18 @@
       <c r="H49" s="116"/>
       <c r="I49" s="116"/>
       <c r="J49" s="117"/>
-      <c r="K49" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
+      <c r="K49" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
       <c r="S49" s="112" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="T49" s="113"/>
       <c r="U49" s="113"/>
@@ -4095,7 +4105,7 @@
     </row>
     <row r="50" spans="1:41" ht="18" customHeight="1">
       <c r="A50" s="39">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="115"/>
@@ -4106,45 +4116,45 @@
       <c r="H50" s="116"/>
       <c r="I50" s="116"/>
       <c r="J50" s="117"/>
-      <c r="K50" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="20"/>
-      <c r="AI50" s="20"/>
-      <c r="AJ50" s="20"/>
-      <c r="AK50" s="20"/>
-      <c r="AL50" s="20"/>
-      <c r="AM50" s="20"/>
-      <c r="AN50" s="20"/>
-      <c r="AO50" s="21"/>
+      <c r="K50" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="T50" s="113"/>
+      <c r="U50" s="113"/>
+      <c r="V50" s="113"/>
+      <c r="W50" s="113"/>
+      <c r="X50" s="113"/>
+      <c r="Y50" s="113"/>
+      <c r="Z50" s="113"/>
+      <c r="AA50" s="113"/>
+      <c r="AB50" s="113"/>
+      <c r="AC50" s="113"/>
+      <c r="AD50" s="113"/>
+      <c r="AE50" s="114"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24"/>
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="24"/>
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="24"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+      <c r="AO50" s="25"/>
     </row>
     <row r="51" spans="1:41" ht="18" customHeight="1">
       <c r="A51" s="39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="115"/>
@@ -4155,18 +4165,18 @@
       <c r="H51" s="116"/>
       <c r="I51" s="116"/>
       <c r="J51" s="117"/>
-      <c r="K51" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
+      <c r="K51" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
       <c r="S51" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
@@ -4193,7 +4203,7 @@
     </row>
     <row r="52" spans="1:41" ht="18" customHeight="1">
       <c r="A52" s="39">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="115"/>
@@ -4204,18 +4214,18 @@
       <c r="H52" s="116"/>
       <c r="I52" s="116"/>
       <c r="J52" s="117"/>
-      <c r="K52" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
+      <c r="K52" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
       <c r="S52" s="32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
@@ -4229,20 +4239,20 @@
       <c r="AC52" s="33"/>
       <c r="AD52" s="33"/>
       <c r="AE52" s="34"/>
-      <c r="AF52" s="24"/>
-      <c r="AG52" s="24"/>
-      <c r="AH52" s="24"/>
-      <c r="AI52" s="24"/>
-      <c r="AJ52" s="24"/>
-      <c r="AK52" s="24"/>
-      <c r="AL52" s="24"/>
-      <c r="AM52" s="24"/>
-      <c r="AN52" s="24"/>
-      <c r="AO52" s="25"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="21"/>
     </row>
     <row r="53" spans="1:41" ht="18" customHeight="1">
       <c r="A53" s="39">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="115"/>
@@ -4253,18 +4263,18 @@
       <c r="H53" s="116"/>
       <c r="I53" s="116"/>
       <c r="J53" s="117"/>
-      <c r="K53" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
+      <c r="K53" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
       <c r="S53" s="32" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
@@ -4277,7 +4287,7 @@
       <c r="AB53" s="33"/>
       <c r="AC53" s="33"/>
       <c r="AD53" s="33"/>
-      <c r="AE53" s="35"/>
+      <c r="AE53" s="34"/>
       <c r="AF53" s="24"/>
       <c r="AG53" s="24"/>
       <c r="AH53" s="24"/>
@@ -4291,7 +4301,7 @@
     </row>
     <row r="54" spans="1:41" ht="18" customHeight="1">
       <c r="A54" s="39">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="115"/>
@@ -4302,18 +4312,18 @@
       <c r="H54" s="116"/>
       <c r="I54" s="116"/>
       <c r="J54" s="117"/>
-      <c r="K54" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
+      <c r="K54" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
       <c r="S54" s="32" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
@@ -4340,7 +4350,7 @@
     </row>
     <row r="55" spans="1:41" ht="18" customHeight="1">
       <c r="A55" s="39">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="115"/>
@@ -4351,30 +4361,30 @@
       <c r="H55" s="116"/>
       <c r="I55" s="116"/>
       <c r="J55" s="117"/>
-      <c r="K55" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37"/>
+      <c r="K55" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="33"/>
       <c r="AE55" s="35"/>
       <c r="AF55" s="24"/>
       <c r="AG55" s="24"/>
@@ -4389,7 +4399,7 @@
     </row>
     <row r="56" spans="1:41" ht="18" customHeight="1">
       <c r="A56" s="39">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="115"/>
@@ -4400,18 +4410,18 @@
       <c r="H56" s="116"/>
       <c r="I56" s="116"/>
       <c r="J56" s="117"/>
-      <c r="K56" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
+      <c r="K56" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
       <c r="S56" s="36" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
@@ -4437,10 +4447,53 @@
       <c r="AO56" s="25"/>
     </row>
     <row r="57" spans="1:41" ht="18" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="39">
+        <v>51</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="24"/>
+      <c r="AG57" s="24"/>
+      <c r="AH57" s="24"/>
+      <c r="AI57" s="24"/>
+      <c r="AJ57" s="24"/>
+      <c r="AK57" s="24"/>
+      <c r="AL57" s="24"/>
+      <c r="AM57" s="24"/>
+      <c r="AN57" s="24"/>
+      <c r="AO57" s="25"/>
     </row>
     <row r="58" spans="1:41" ht="18" customHeight="1">
       <c r="A58" s="12"/>
@@ -4610,53 +4663,11 @@
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
     </row>
-    <row r="86" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
+    <row r="86" spans="1:47" ht="18" customHeight="1">
       <c r="A86" s="12"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
-      <c r="AA86" s="9"/>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
-      <c r="AD86" s="9"/>
-      <c r="AE86" s="9"/>
-      <c r="AF86" s="9"/>
-      <c r="AG86" s="9"/>
-      <c r="AH86" s="9"/>
-      <c r="AI86" s="9"/>
-      <c r="AJ86" s="9"/>
-      <c r="AK86" s="9"/>
-      <c r="AL86" s="9"/>
-      <c r="AM86" s="9"/>
-      <c r="AN86" s="9"/>
-      <c r="AO86" s="9"/>
-      <c r="AP86" s="9"/>
-      <c r="AQ86" s="9"/>
-      <c r="AR86" s="9"/>
-      <c r="AS86" s="9"/>
-      <c r="AT86" s="9"/>
-      <c r="AU86" s="9"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="12"/>
@@ -4708,8 +4719,8 @@
     </row>
     <row r="88" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="12"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -4756,8 +4767,8 @@
     </row>
     <row r="89" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="12"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -5378,8 +5389,53 @@
       <c r="AT101" s="9"/>
       <c r="AU101" s="9"/>
     </row>
-    <row r="102" spans="1:47" ht="18" customHeight="1">
+    <row r="102" spans="1:47" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="12"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="9"/>
+      <c r="AD102" s="9"/>
+      <c r="AE102" s="9"/>
+      <c r="AF102" s="9"/>
+      <c r="AG102" s="9"/>
+      <c r="AH102" s="9"/>
+      <c r="AI102" s="9"/>
+      <c r="AJ102" s="9"/>
+      <c r="AK102" s="9"/>
+      <c r="AL102" s="9"/>
+      <c r="AM102" s="9"/>
+      <c r="AN102" s="9"/>
+      <c r="AO102" s="9"/>
+      <c r="AP102" s="9"/>
+      <c r="AQ102" s="9"/>
+      <c r="AR102" s="9"/>
+      <c r="AS102" s="9"/>
+      <c r="AT102" s="9"/>
+      <c r="AU102" s="9"/>
     </row>
     <row r="103" spans="1:47" ht="18" customHeight="1">
       <c r="A103" s="12"/>
@@ -5387,26 +5443,38 @@
     <row r="104" spans="1:47" ht="18" customHeight="1">
       <c r="A104" s="12"/>
     </row>
+    <row r="105" spans="1:47" ht="18" customHeight="1">
+      <c r="A105" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="151">
+  <mergeCells count="152">
+    <mergeCell ref="C11:J29"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="S7:AE7"/>
+    <mergeCell ref="S50:AE50"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="K50:R50"/>
+    <mergeCell ref="K49:R49"/>
     <mergeCell ref="S49:AE49"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="K49:R49"/>
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="K52:R52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C47:J57"/>
+    <mergeCell ref="K47:R47"/>
+    <mergeCell ref="S47:AE47"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="K48:R48"/>
     <mergeCell ref="S48:AE48"/>
-    <mergeCell ref="K52:R52"/>
-    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
     <mergeCell ref="K54:R54"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C46:J56"/>
-    <mergeCell ref="K46:R46"/>
-    <mergeCell ref="S46:AE46"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="K47:R47"/>
-    <mergeCell ref="S47:AE47"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="S17:AE17"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:AE1"/>
     <mergeCell ref="AF1:AJ1"/>
@@ -5429,8 +5497,8 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:AE5"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="S7:AE7"/>
+    <mergeCell ref="S18:AE18"/>
+    <mergeCell ref="K37:R37"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="K12:R12"/>
@@ -5438,7 +5506,6 @@
     <mergeCell ref="K11:R11"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="S11:AE11"/>
-    <mergeCell ref="C11:J28"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="S10:AE10"/>
@@ -5453,69 +5520,61 @@
     <mergeCell ref="S16:AE16"/>
     <mergeCell ref="S14:AE14"/>
     <mergeCell ref="S15:AE15"/>
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="S36:AE36"/>
+    <mergeCell ref="C30:J46"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="S30:AE30"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="S31:AE31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="K34:R34"/>
     <mergeCell ref="S34:AE34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="K35:R35"/>
-    <mergeCell ref="S35:AE35"/>
-    <mergeCell ref="C29:J45"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="S29:AE29"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="S30:AE30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="S33:AE33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="S46:AE46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="K40:R40"/>
     <mergeCell ref="S45:AE45"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="K38:R38"/>
     <mergeCell ref="K39:R39"/>
-    <mergeCell ref="S44:AE44"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="S18:AE18"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="S31:AE31"/>
+    <mergeCell ref="S32:AE32"/>
     <mergeCell ref="K19:R19"/>
     <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S37:AE37"/>
     <mergeCell ref="S38:AE38"/>
+    <mergeCell ref="S39:AE39"/>
     <mergeCell ref="K20:R20"/>
     <mergeCell ref="K23:R23"/>
     <mergeCell ref="K22:R22"/>
     <mergeCell ref="K24:R24"/>
     <mergeCell ref="K28:R28"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="S32:AE32"/>
-    <mergeCell ref="S39:AE39"/>
-    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:AE33"/>
+    <mergeCell ref="S35:AE35"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S40:AE40"/>
     <mergeCell ref="K41:R41"/>
     <mergeCell ref="K42:R42"/>
     <mergeCell ref="K43:R43"/>
-    <mergeCell ref="S40:AE40"/>
+    <mergeCell ref="K44:R44"/>
     <mergeCell ref="S41:AE41"/>
     <mergeCell ref="S42:AE42"/>
     <mergeCell ref="S43:AE43"/>
+    <mergeCell ref="S44:AE44"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="K15:R15"/>
     <mergeCell ref="K18:R18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A20:B20"/>
@@ -5525,21 +5584,22 @@
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="K27:R27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="K45:R45"/>
+    <mergeCell ref="K46:R46"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="K56:R56"/>
-    <mergeCell ref="A55:B55"/>
     <mergeCell ref="K55:R55"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
